--- a/Data/OK_musical_ensemble_scenes.xlsx
+++ b/Data/OK_musical_ensemble_scenes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mqoutlook-my.sharepoint.com/personal/austin_megier_hdr_mq_edu_au/Documents/MRes Thesis - Chironomy/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mqoutlook-my.sharepoint.com/personal/austin_megier_hdr_mq_edu_au/Documents/MRes_Thesis_Data/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7331" documentId="8_{54466117-68E5-FA45-A62B-69B7A0496348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A22DADDC-E821-A94C-AA4C-ACA78C7819CC}"/>
+  <xr:revisionPtr revIDLastSave="7343" documentId="8_{54466117-68E5-FA45-A62B-69B7A0496348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B793BD34-28F4-F647-9A6B-314878FAFC08}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" firstSheet="4" activeTab="14" xr2:uid="{F188212D-6757-6E45-81FC-2E36196F77A2}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4125" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4406" uniqueCount="770">
   <si>
     <t>Room</t>
   </si>
@@ -2354,6 +2354,9 @@
   </si>
   <si>
     <t>near</t>
+  </si>
+  <si>
+    <t>Hand_RL</t>
   </si>
 </sst>
 </file>
@@ -15951,33 +15954,36 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59AD92AC-CE9C-1748-B25F-61E3C8ED781E}">
-  <dimension ref="A1:E281"/>
+  <dimension ref="A1:F281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B256" sqref="B256"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>693</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15985,13 +15991,16 @@
         <v>767</v>
       </c>
       <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
         <v>737</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -15999,16 +16008,19 @@
         <v>768</v>
       </c>
       <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
         <v>736</v>
-      </c>
-      <c r="D3" t="s">
-        <v>358</v>
       </c>
       <c r="E3" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
@@ -16016,16 +16028,19 @@
         <v>768</v>
       </c>
       <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
         <v>739</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>359</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
@@ -16033,16 +16048,19 @@
         <v>767</v>
       </c>
       <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
         <v>743</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>360</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
@@ -16050,16 +16068,19 @@
         <v>767</v>
       </c>
       <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
         <v>737</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>361</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>3</v>
       </c>
@@ -16067,16 +16088,19 @@
         <v>768</v>
       </c>
       <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
         <v>736</v>
-      </c>
-      <c r="D7" t="s">
-        <v>358</v>
       </c>
       <c r="E7" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>4</v>
       </c>
@@ -16084,16 +16108,19 @@
         <v>767</v>
       </c>
       <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
         <v>737</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>363</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>4</v>
       </c>
@@ -16101,16 +16128,19 @@
         <v>768</v>
       </c>
       <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
         <v>736</v>
-      </c>
-      <c r="D9" t="s">
-        <v>358</v>
       </c>
       <c r="E9" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>5</v>
       </c>
@@ -16118,16 +16148,19 @@
         <v>767</v>
       </c>
       <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
         <v>737</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>363</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>5</v>
       </c>
@@ -16135,16 +16168,19 @@
         <v>768</v>
       </c>
       <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
         <v>736</v>
-      </c>
-      <c r="D11" t="s">
-        <v>358</v>
       </c>
       <c r="E11" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>6</v>
       </c>
@@ -16152,24 +16188,30 @@
         <v>768</v>
       </c>
       <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
         <v>736</v>
-      </c>
-      <c r="D12" t="s">
-        <v>358</v>
       </c>
       <c r="E12" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>7</v>
       </c>
@@ -16177,16 +16219,19 @@
         <v>768</v>
       </c>
       <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
         <v>736</v>
-      </c>
-      <c r="D14" t="s">
-        <v>358</v>
       </c>
       <c r="E14" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>7</v>
       </c>
@@ -16194,16 +16239,19 @@
         <v>767</v>
       </c>
       <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
         <v>737</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>360</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>8</v>
       </c>
@@ -16211,30 +16259,36 @@
         <v>768</v>
       </c>
       <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
         <v>736</v>
-      </c>
-      <c r="D16" t="s">
-        <v>358</v>
       </c>
       <c r="E16" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>767</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
         <v>363</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>9</v>
       </c>
@@ -16242,13 +16296,16 @@
         <v>767</v>
       </c>
       <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
         <v>737</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>9</v>
       </c>
@@ -16256,16 +16313,19 @@
         <v>768</v>
       </c>
       <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
         <v>736</v>
-      </c>
-      <c r="D19" t="s">
-        <v>358</v>
       </c>
       <c r="E19" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>10</v>
       </c>
@@ -16273,16 +16333,19 @@
         <v>768</v>
       </c>
       <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
         <v>736</v>
-      </c>
-      <c r="D20" t="s">
-        <v>358</v>
       </c>
       <c r="E20" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>10</v>
       </c>
@@ -16290,16 +16353,19 @@
         <v>767</v>
       </c>
       <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
         <v>743</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>360</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>11</v>
       </c>
@@ -16307,16 +16373,19 @@
         <v>767</v>
       </c>
       <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
         <v>737</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>360</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>11</v>
       </c>
@@ -16324,16 +16393,19 @@
         <v>768</v>
       </c>
       <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
         <v>736</v>
-      </c>
-      <c r="D23" t="s">
-        <v>358</v>
       </c>
       <c r="E23" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>12</v>
       </c>
@@ -16341,52 +16413,64 @@
         <v>767</v>
       </c>
       <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
         <v>737</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>363</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>13</v>
       </c>
       <c r="B26" t="s">
         <v>768</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
         <v>360</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>13</v>
       </c>
       <c r="B27" t="s">
         <v>767</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
         <v>360</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>14</v>
       </c>
@@ -16394,16 +16478,19 @@
         <v>767</v>
       </c>
       <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
         <v>743</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>363</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>14</v>
       </c>
@@ -16411,16 +16498,19 @@
         <v>768</v>
       </c>
       <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
         <v>738</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>360</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>15</v>
       </c>
@@ -16428,16 +16518,19 @@
         <v>768</v>
       </c>
       <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
         <v>738</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>359</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>15</v>
       </c>
@@ -16445,44 +16538,53 @@
         <v>767</v>
       </c>
       <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
         <v>737</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>360</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>16</v>
       </c>
       <c r="B32" t="s">
         <v>768</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" t="s">
         <v>359</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>16</v>
       </c>
       <c r="B33" t="s">
         <v>767</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s">
         <v>360</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" s="4">
         <v>17</v>
       </c>
@@ -16490,16 +16592,19 @@
         <v>767</v>
       </c>
       <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" t="s">
         <v>743</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>360</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>17</v>
       </c>
@@ -16507,16 +16612,19 @@
         <v>768</v>
       </c>
       <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
         <v>736</v>
-      </c>
-      <c r="D35" t="s">
-        <v>358</v>
       </c>
       <c r="E35" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>18</v>
       </c>
@@ -16524,16 +16632,19 @@
         <v>768</v>
       </c>
       <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
         <v>738</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>359</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>18</v>
       </c>
@@ -16541,54 +16652,69 @@
         <v>767</v>
       </c>
       <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
         <v>737</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>361</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>19</v>
       </c>
       <c r="B38" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>20</v>
       </c>
       <c r="B40" t="s">
         <v>767</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" t="s">
         <v>363</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>20</v>
       </c>
       <c r="B41" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>21</v>
       </c>
@@ -16596,16 +16722,19 @@
         <v>767</v>
       </c>
       <c r="C42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" t="s">
         <v>369</v>
-      </c>
-      <c r="D42" t="s">
-        <v>358</v>
       </c>
       <c r="E42" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>21</v>
       </c>
@@ -16613,16 +16742,19 @@
         <v>768</v>
       </c>
       <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
         <v>738</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>359</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>22</v>
       </c>
@@ -16630,16 +16762,19 @@
         <v>767</v>
       </c>
       <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" t="s">
         <v>737</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>361</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>22</v>
       </c>
@@ -16647,16 +16782,19 @@
         <v>768</v>
       </c>
       <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s">
         <v>739</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>359</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>23</v>
       </c>
@@ -16664,16 +16802,19 @@
         <v>767</v>
       </c>
       <c r="C46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" t="s">
         <v>737</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>361</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>23</v>
       </c>
@@ -16681,16 +16822,19 @@
         <v>768</v>
       </c>
       <c r="C47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" t="s">
         <v>736</v>
-      </c>
-      <c r="D47" t="s">
-        <v>358</v>
       </c>
       <c r="E47" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>24</v>
       </c>
@@ -16698,16 +16842,19 @@
         <v>767</v>
       </c>
       <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
         <v>737</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>361</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>24</v>
       </c>
@@ -16715,16 +16862,19 @@
         <v>768</v>
       </c>
       <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" t="s">
         <v>739</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>359</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>25</v>
       </c>
@@ -16732,16 +16882,19 @@
         <v>767</v>
       </c>
       <c r="C50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" t="s">
         <v>737</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>363</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>25</v>
       </c>
@@ -16749,16 +16902,19 @@
         <v>768</v>
       </c>
       <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" t="s">
         <v>736</v>
-      </c>
-      <c r="D51" t="s">
-        <v>358</v>
       </c>
       <c r="E51" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>26</v>
       </c>
@@ -16766,16 +16922,19 @@
         <v>768</v>
       </c>
       <c r="C52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" t="s">
         <v>736</v>
-      </c>
-      <c r="D52" t="s">
-        <v>358</v>
       </c>
       <c r="E52" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>26</v>
       </c>
@@ -16783,13 +16942,16 @@
         <v>767</v>
       </c>
       <c r="C53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" t="s">
         <v>737</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>27</v>
       </c>
@@ -16797,24 +16959,30 @@
         <v>767</v>
       </c>
       <c r="C54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" t="s">
         <v>742</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>361</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>27</v>
       </c>
       <c r="B55" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>28</v>
       </c>
@@ -16822,16 +16990,19 @@
         <v>767</v>
       </c>
       <c r="C56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" t="s">
         <v>737</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>360</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>28</v>
       </c>
@@ -16839,16 +17010,19 @@
         <v>768</v>
       </c>
       <c r="C57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" t="s">
         <v>736</v>
-      </c>
-      <c r="D57" t="s">
-        <v>358</v>
       </c>
       <c r="E57" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>29</v>
       </c>
@@ -16856,16 +17030,19 @@
         <v>767</v>
       </c>
       <c r="C58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s">
         <v>737</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>360</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>29</v>
       </c>
@@ -16873,16 +17050,19 @@
         <v>768</v>
       </c>
       <c r="C59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" t="s">
         <v>736</v>
-      </c>
-      <c r="D59" t="s">
-        <v>358</v>
       </c>
       <c r="E59" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>30</v>
       </c>
@@ -16890,16 +17070,19 @@
         <v>767</v>
       </c>
       <c r="C60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" t="s">
         <v>737</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>360</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>30</v>
       </c>
@@ -16907,16 +17090,19 @@
         <v>768</v>
       </c>
       <c r="C61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" t="s">
         <v>736</v>
-      </c>
-      <c r="D61" t="s">
-        <v>358</v>
       </c>
       <c r="E61" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>31</v>
       </c>
@@ -16924,16 +17110,19 @@
         <v>767</v>
       </c>
       <c r="C62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" t="s">
         <v>737</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>361</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>31</v>
       </c>
@@ -16941,38 +17130,47 @@
         <v>768</v>
       </c>
       <c r="C63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" t="s">
         <v>736</v>
-      </c>
-      <c r="D63" t="s">
-        <v>358</v>
       </c>
       <c r="E63" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>32</v>
       </c>
       <c r="B64" t="s">
         <v>767</v>
       </c>
-      <c r="D64" t="s">
+      <c r="C64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" t="s">
         <v>363</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>32</v>
       </c>
       <c r="B65" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="C65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>33</v>
       </c>
@@ -16980,16 +17178,19 @@
         <v>768</v>
       </c>
       <c r="C66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" t="s">
         <v>736</v>
-      </c>
-      <c r="D66" t="s">
-        <v>358</v>
       </c>
       <c r="E66" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>33</v>
       </c>
@@ -16997,16 +17198,19 @@
         <v>767</v>
       </c>
       <c r="C67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" t="s">
         <v>737</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>363</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>34</v>
       </c>
@@ -17014,16 +17218,19 @@
         <v>768</v>
       </c>
       <c r="C68" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" t="s">
         <v>736</v>
-      </c>
-      <c r="D68" t="s">
-        <v>358</v>
       </c>
       <c r="E68" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>34</v>
       </c>
@@ -17031,16 +17238,19 @@
         <v>767</v>
       </c>
       <c r="C69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" t="s">
         <v>737</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>363</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>35</v>
       </c>
@@ -17048,16 +17258,19 @@
         <v>768</v>
       </c>
       <c r="C70" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" t="s">
         <v>736</v>
-      </c>
-      <c r="D70" t="s">
-        <v>358</v>
       </c>
       <c r="E70" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>35</v>
       </c>
@@ -17065,16 +17278,19 @@
         <v>767</v>
       </c>
       <c r="C71" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" t="s">
         <v>737</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>360</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>36</v>
       </c>
@@ -17082,16 +17298,19 @@
         <v>767</v>
       </c>
       <c r="C72" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72" t="s">
         <v>737</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>363</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>36</v>
       </c>
@@ -17099,16 +17318,19 @@
         <v>768</v>
       </c>
       <c r="C73" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73" t="s">
         <v>738</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>359</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>37</v>
       </c>
@@ -17116,10 +17338,13 @@
         <v>768</v>
       </c>
       <c r="C74" t="s">
+        <v>57</v>
+      </c>
+      <c r="D74" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>37</v>
       </c>
@@ -17127,16 +17352,19 @@
         <v>767</v>
       </c>
       <c r="C75" t="s">
+        <v>58</v>
+      </c>
+      <c r="D75" t="s">
         <v>738</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>359</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>38</v>
       </c>
@@ -17144,10 +17372,13 @@
         <v>768</v>
       </c>
       <c r="C76" t="s">
+        <v>57</v>
+      </c>
+      <c r="D76" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>38</v>
       </c>
@@ -17155,16 +17386,19 @@
         <v>767</v>
       </c>
       <c r="C77" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77" t="s">
         <v>738</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>359</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>39</v>
       </c>
@@ -17172,16 +17406,19 @@
         <v>767</v>
       </c>
       <c r="C78" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" t="s">
         <v>737</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>363</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>39</v>
       </c>
@@ -17189,16 +17426,19 @@
         <v>768</v>
       </c>
       <c r="C79" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" t="s">
         <v>738</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>359</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>40</v>
       </c>
@@ -17206,16 +17446,19 @@
         <v>768</v>
       </c>
       <c r="C80" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80" t="s">
         <v>736</v>
-      </c>
-      <c r="D80" t="s">
-        <v>358</v>
       </c>
       <c r="E80" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>40</v>
       </c>
@@ -17223,48 +17466,63 @@
         <v>767</v>
       </c>
       <c r="C81" t="s">
+        <v>58</v>
+      </c>
+      <c r="D81" t="s">
         <v>738</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>359</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>41</v>
       </c>
       <c r="B82" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="C82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>41</v>
       </c>
       <c r="B83" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="C83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>42</v>
       </c>
       <c r="B84" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="C84" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>42</v>
       </c>
       <c r="B85" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="C85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>43</v>
       </c>
@@ -17272,16 +17530,19 @@
         <v>767</v>
       </c>
       <c r="C86" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86" t="s">
         <v>737</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>360</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>43</v>
       </c>
@@ -17289,16 +17550,19 @@
         <v>768</v>
       </c>
       <c r="C87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87" t="s">
         <v>736</v>
-      </c>
-      <c r="D87" t="s">
-        <v>358</v>
       </c>
       <c r="E87" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>44</v>
       </c>
@@ -17306,27 +17570,33 @@
         <v>767</v>
       </c>
       <c r="C88" t="s">
+        <v>57</v>
+      </c>
+      <c r="D88" t="s">
         <v>368</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>44</v>
       </c>
       <c r="B89" t="s">
         <v>768</v>
       </c>
-      <c r="D89" t="s">
-        <v>358</v>
+      <c r="C89" t="s">
+        <v>58</v>
       </c>
       <c r="E89" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>45</v>
       </c>
@@ -17334,16 +17604,19 @@
         <v>767</v>
       </c>
       <c r="C90" t="s">
+        <v>57</v>
+      </c>
+      <c r="D90" t="s">
         <v>737</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>360</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>45</v>
       </c>
@@ -17351,16 +17624,19 @@
         <v>768</v>
       </c>
       <c r="C91" t="s">
+        <v>58</v>
+      </c>
+      <c r="D91" t="s">
         <v>736</v>
-      </c>
-      <c r="D91" t="s">
-        <v>358</v>
       </c>
       <c r="E91" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>46</v>
       </c>
@@ -17368,16 +17644,19 @@
         <v>768</v>
       </c>
       <c r="C92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D92" t="s">
         <v>740</v>
-      </c>
-      <c r="D92" t="s">
-        <v>358</v>
       </c>
       <c r="E92" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>46</v>
       </c>
@@ -17385,16 +17664,19 @@
         <v>767</v>
       </c>
       <c r="C93" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93" t="s">
         <v>737</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>360</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>47</v>
       </c>
@@ -17402,16 +17684,19 @@
         <v>767</v>
       </c>
       <c r="C94" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" t="s">
         <v>743</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>360</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>47</v>
       </c>
@@ -17419,30 +17704,36 @@
         <v>768</v>
       </c>
       <c r="C95" t="s">
+        <v>58</v>
+      </c>
+      <c r="D95" t="s">
         <v>736</v>
-      </c>
-      <c r="D95" t="s">
-        <v>358</v>
       </c>
       <c r="E95" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>48</v>
       </c>
       <c r="B96" t="s">
         <v>767</v>
       </c>
-      <c r="D96" t="s">
+      <c r="C96" t="s">
+        <v>57</v>
+      </c>
+      <c r="E96" t="s">
         <v>363</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>48</v>
       </c>
@@ -17450,30 +17741,36 @@
         <v>768</v>
       </c>
       <c r="C97" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" t="s">
         <v>741</v>
-      </c>
-      <c r="D97" t="s">
-        <v>358</v>
       </c>
       <c r="E97" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>49</v>
       </c>
       <c r="B98" t="s">
         <v>767</v>
       </c>
-      <c r="D98" t="s">
+      <c r="C98" t="s">
+        <v>57</v>
+      </c>
+      <c r="E98" t="s">
         <v>360</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>49</v>
       </c>
@@ -17481,16 +17778,19 @@
         <v>768</v>
       </c>
       <c r="C99" t="s">
+        <v>58</v>
+      </c>
+      <c r="D99" t="s">
         <v>741</v>
-      </c>
-      <c r="D99" t="s">
-        <v>358</v>
       </c>
       <c r="E99" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>50</v>
       </c>
@@ -17498,16 +17798,19 @@
         <v>767</v>
       </c>
       <c r="C100" t="s">
+        <v>57</v>
+      </c>
+      <c r="D100" t="s">
         <v>743</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>360</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>50</v>
       </c>
@@ -17515,16 +17818,19 @@
         <v>768</v>
       </c>
       <c r="C101" t="s">
+        <v>58</v>
+      </c>
+      <c r="D101" t="s">
         <v>736</v>
-      </c>
-      <c r="D101" t="s">
-        <v>358</v>
       </c>
       <c r="E101" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>51</v>
       </c>
@@ -17532,16 +17838,19 @@
         <v>768</v>
       </c>
       <c r="C102" t="s">
+        <v>57</v>
+      </c>
+      <c r="D102" t="s">
         <v>736</v>
-      </c>
-      <c r="D102" t="s">
-        <v>358</v>
       </c>
       <c r="E102" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>51</v>
       </c>
@@ -17549,16 +17858,19 @@
         <v>767</v>
       </c>
       <c r="C103" t="s">
+        <v>58</v>
+      </c>
+      <c r="D103" t="s">
         <v>737</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>360</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>52</v>
       </c>
@@ -17566,16 +17878,19 @@
         <v>767</v>
       </c>
       <c r="C104" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" t="s">
         <v>737</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>360</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>52</v>
       </c>
@@ -17583,16 +17898,19 @@
         <v>768</v>
       </c>
       <c r="C105" t="s">
+        <v>58</v>
+      </c>
+      <c r="D105" t="s">
         <v>738</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>359</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>53</v>
       </c>
@@ -17600,16 +17918,19 @@
         <v>768</v>
       </c>
       <c r="C106" t="s">
+        <v>57</v>
+      </c>
+      <c r="D106" t="s">
         <v>736</v>
-      </c>
-      <c r="D106" t="s">
-        <v>358</v>
       </c>
       <c r="E106" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>53</v>
       </c>
@@ -17617,16 +17938,19 @@
         <v>767</v>
       </c>
       <c r="C107" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107" t="s">
         <v>737</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>361</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>54</v>
       </c>
@@ -17634,16 +17958,19 @@
         <v>767</v>
       </c>
       <c r="C108" t="s">
+        <v>57</v>
+      </c>
+      <c r="D108" t="s">
         <v>737</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>363</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>54</v>
       </c>
@@ -17651,16 +17978,19 @@
         <v>768</v>
       </c>
       <c r="C109" t="s">
+        <v>58</v>
+      </c>
+      <c r="D109" t="s">
         <v>736</v>
-      </c>
-      <c r="D109" t="s">
-        <v>358</v>
       </c>
       <c r="E109" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>55</v>
       </c>
@@ -17668,16 +17998,19 @@
         <v>767</v>
       </c>
       <c r="C110" t="s">
+        <v>57</v>
+      </c>
+      <c r="D110" t="s">
         <v>737</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>363</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>55</v>
       </c>
@@ -17685,16 +18018,19 @@
         <v>768</v>
       </c>
       <c r="C111" t="s">
+        <v>58</v>
+      </c>
+      <c r="D111" t="s">
         <v>736</v>
-      </c>
-      <c r="D111" t="s">
-        <v>358</v>
       </c>
       <c r="E111" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>56</v>
       </c>
@@ -17702,16 +18038,19 @@
         <v>767</v>
       </c>
       <c r="C112" t="s">
+        <v>57</v>
+      </c>
+      <c r="D112" t="s">
         <v>737</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>363</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>56</v>
       </c>
@@ -17719,16 +18058,19 @@
         <v>768</v>
       </c>
       <c r="C113" t="s">
+        <v>58</v>
+      </c>
+      <c r="D113" t="s">
         <v>736</v>
-      </c>
-      <c r="D113" t="s">
-        <v>358</v>
       </c>
       <c r="E113" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>57</v>
       </c>
@@ -17736,16 +18078,19 @@
         <v>768</v>
       </c>
       <c r="C114" t="s">
+        <v>57</v>
+      </c>
+      <c r="D114" t="s">
         <v>737</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>363</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>57</v>
       </c>
@@ -17753,16 +18098,19 @@
         <v>767</v>
       </c>
       <c r="C115" t="s">
+        <v>58</v>
+      </c>
+      <c r="D115" t="s">
         <v>739</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>360</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>58</v>
       </c>
@@ -17770,16 +18118,19 @@
         <v>767</v>
       </c>
       <c r="C116" t="s">
+        <v>57</v>
+      </c>
+      <c r="D116" t="s">
         <v>737</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>363</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>58</v>
       </c>
@@ -17787,16 +18138,19 @@
         <v>768</v>
       </c>
       <c r="C117" t="s">
+        <v>58</v>
+      </c>
+      <c r="D117" t="s">
         <v>736</v>
-      </c>
-      <c r="D117" t="s">
-        <v>358</v>
       </c>
       <c r="E117" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>59</v>
       </c>
@@ -17804,16 +18158,19 @@
         <v>767</v>
       </c>
       <c r="C118" t="s">
+        <v>57</v>
+      </c>
+      <c r="D118" t="s">
         <v>737</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>363</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>59</v>
       </c>
@@ -17821,16 +18178,19 @@
         <v>768</v>
       </c>
       <c r="C119" t="s">
+        <v>58</v>
+      </c>
+      <c r="D119" t="s">
         <v>736</v>
-      </c>
-      <c r="D119" t="s">
-        <v>358</v>
       </c>
       <c r="E119" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>60</v>
       </c>
@@ -17838,16 +18198,19 @@
         <v>768</v>
       </c>
       <c r="C120" t="s">
+        <v>57</v>
+      </c>
+      <c r="D120" t="s">
         <v>739</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>359</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>60</v>
       </c>
@@ -17855,51 +18218,66 @@
         <v>767</v>
       </c>
       <c r="C121" t="s">
+        <v>58</v>
+      </c>
+      <c r="D121" t="s">
         <v>737</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>361</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>61</v>
       </c>
       <c r="B122" t="s">
         <v>767</v>
       </c>
-      <c r="D122" t="s">
+      <c r="C122" t="s">
+        <v>57</v>
+      </c>
+      <c r="E122" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>61</v>
       </c>
       <c r="B123" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="C123" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>62</v>
       </c>
       <c r="B124" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="C124" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>62</v>
       </c>
       <c r="B125" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="C125" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>63</v>
       </c>
@@ -17907,18 +18285,24 @@
         <v>767</v>
       </c>
       <c r="C126" t="s">
+        <v>57</v>
+      </c>
+      <c r="D126" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>63</v>
       </c>
       <c r="B127" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="C127" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>64</v>
       </c>
@@ -17926,16 +18310,19 @@
         <v>767</v>
       </c>
       <c r="C128" t="s">
+        <v>57</v>
+      </c>
+      <c r="D128" t="s">
         <v>737</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>360</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>64</v>
       </c>
@@ -17943,16 +18330,19 @@
         <v>768</v>
       </c>
       <c r="C129" t="s">
+        <v>58</v>
+      </c>
+      <c r="D129" t="s">
         <v>736</v>
-      </c>
-      <c r="D129" t="s">
-        <v>358</v>
       </c>
       <c r="E129" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>65</v>
       </c>
@@ -17960,16 +18350,19 @@
         <v>768</v>
       </c>
       <c r="C130" t="s">
+        <v>57</v>
+      </c>
+      <c r="D130" t="s">
         <v>738</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>360</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>65</v>
       </c>
@@ -17977,16 +18370,19 @@
         <v>767</v>
       </c>
       <c r="C131" t="s">
+        <v>58</v>
+      </c>
+      <c r="D131" t="s">
         <v>743</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>363</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>66</v>
       </c>
@@ -17994,16 +18390,19 @@
         <v>767</v>
       </c>
       <c r="C132" t="s">
+        <v>57</v>
+      </c>
+      <c r="D132" t="s">
         <v>737</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>360</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>66</v>
       </c>
@@ -18011,60 +18410,75 @@
         <v>768</v>
       </c>
       <c r="C133" t="s">
+        <v>58</v>
+      </c>
+      <c r="D133" t="s">
         <v>739</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>359</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>67</v>
       </c>
       <c r="B134" t="s">
         <v>767</v>
       </c>
-      <c r="D134" t="s">
+      <c r="C134" t="s">
+        <v>57</v>
+      </c>
+      <c r="E134" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>67</v>
       </c>
       <c r="B135" t="s">
         <v>768</v>
       </c>
-      <c r="D135" t="s">
+      <c r="C135" t="s">
+        <v>58</v>
+      </c>
+      <c r="E135" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>68</v>
       </c>
       <c r="B136" t="s">
         <v>767</v>
       </c>
-      <c r="D136" t="s">
+      <c r="C136" t="s">
+        <v>57</v>
+      </c>
+      <c r="E136" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>68</v>
       </c>
       <c r="B137" t="s">
         <v>768</v>
       </c>
-      <c r="D137" t="s">
+      <c r="C137" t="s">
+        <v>58</v>
+      </c>
+      <c r="E137" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>69</v>
       </c>
@@ -18072,16 +18486,19 @@
         <v>767</v>
       </c>
       <c r="C138" t="s">
+        <v>57</v>
+      </c>
+      <c r="D138" t="s">
         <v>743</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>363</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>69</v>
       </c>
@@ -18089,16 +18506,19 @@
         <v>768</v>
       </c>
       <c r="C139" t="s">
+        <v>58</v>
+      </c>
+      <c r="D139" t="s">
         <v>738</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>359</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>70</v>
       </c>
@@ -18106,16 +18526,19 @@
         <v>767</v>
       </c>
       <c r="C140" t="s">
+        <v>57</v>
+      </c>
+      <c r="D140" t="s">
         <v>737</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>360</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>70</v>
       </c>
@@ -18123,16 +18546,19 @@
         <v>768</v>
       </c>
       <c r="C141" t="s">
+        <v>58</v>
+      </c>
+      <c r="D141" t="s">
         <v>736</v>
-      </c>
-      <c r="D141" t="s">
-        <v>358</v>
       </c>
       <c r="E141" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="F141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>71</v>
       </c>
@@ -18140,16 +18566,19 @@
         <v>767</v>
       </c>
       <c r="C142" t="s">
+        <v>57</v>
+      </c>
+      <c r="D142" t="s">
         <v>737</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>360</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>71</v>
       </c>
@@ -18157,16 +18586,19 @@
         <v>768</v>
       </c>
       <c r="C143" t="s">
+        <v>58</v>
+      </c>
+      <c r="D143" t="s">
         <v>736</v>
-      </c>
-      <c r="D143" t="s">
-        <v>358</v>
       </c>
       <c r="E143" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>72</v>
       </c>
@@ -18174,16 +18606,19 @@
         <v>767</v>
       </c>
       <c r="C144" t="s">
+        <v>57</v>
+      </c>
+      <c r="D144" t="s">
         <v>737</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>360</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>72</v>
       </c>
@@ -18191,16 +18626,19 @@
         <v>768</v>
       </c>
       <c r="C145" t="s">
+        <v>58</v>
+      </c>
+      <c r="D145" t="s">
         <v>736</v>
-      </c>
-      <c r="D145" t="s">
-        <v>358</v>
       </c>
       <c r="E145" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>73</v>
       </c>
@@ -18208,16 +18646,19 @@
         <v>767</v>
       </c>
       <c r="C146" t="s">
+        <v>57</v>
+      </c>
+      <c r="D146" t="s">
         <v>737</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>363</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>73</v>
       </c>
@@ -18225,16 +18666,19 @@
         <v>768</v>
       </c>
       <c r="C147" t="s">
+        <v>58</v>
+      </c>
+      <c r="D147" t="s">
         <v>736</v>
-      </c>
-      <c r="D147" t="s">
-        <v>358</v>
       </c>
       <c r="E147" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>74</v>
       </c>
@@ -18242,16 +18686,19 @@
         <v>768</v>
       </c>
       <c r="C148" t="s">
+        <v>57</v>
+      </c>
+      <c r="D148" t="s">
         <v>737</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>361</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>74</v>
       </c>
@@ -18259,16 +18706,19 @@
         <v>767</v>
       </c>
       <c r="C149" t="s">
+        <v>58</v>
+      </c>
+      <c r="D149" t="s">
         <v>738</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>359</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>75</v>
       </c>
@@ -18276,16 +18726,19 @@
         <v>767</v>
       </c>
       <c r="C150" t="s">
+        <v>57</v>
+      </c>
+      <c r="D150" t="s">
         <v>737</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
         <v>361</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>75</v>
       </c>
@@ -18293,16 +18746,19 @@
         <v>768</v>
       </c>
       <c r="C151" t="s">
+        <v>58</v>
+      </c>
+      <c r="D151" t="s">
         <v>736</v>
-      </c>
-      <c r="D151" t="s">
-        <v>358</v>
       </c>
       <c r="E151" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>76</v>
       </c>
@@ -18310,16 +18766,19 @@
         <v>767</v>
       </c>
       <c r="C152" t="s">
+        <v>57</v>
+      </c>
+      <c r="D152" t="s">
         <v>737</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>361</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>76</v>
       </c>
@@ -18327,16 +18786,19 @@
         <v>768</v>
       </c>
       <c r="C153" t="s">
+        <v>58</v>
+      </c>
+      <c r="D153" t="s">
         <v>738</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
         <v>359</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>77</v>
       </c>
@@ -18344,16 +18806,19 @@
         <v>767</v>
       </c>
       <c r="C154" t="s">
+        <v>57</v>
+      </c>
+      <c r="D154" t="s">
         <v>737</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>363</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>77</v>
       </c>
@@ -18361,16 +18826,19 @@
         <v>768</v>
       </c>
       <c r="C155" t="s">
+        <v>58</v>
+      </c>
+      <c r="D155" t="s">
         <v>736</v>
-      </c>
-      <c r="D155" t="s">
-        <v>358</v>
       </c>
       <c r="E155" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>78</v>
       </c>
@@ -18378,16 +18846,19 @@
         <v>767</v>
       </c>
       <c r="C156" t="s">
+        <v>57</v>
+      </c>
+      <c r="D156" t="s">
         <v>737</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>360</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>78</v>
       </c>
@@ -18395,16 +18866,19 @@
         <v>768</v>
       </c>
       <c r="C157" t="s">
+        <v>58</v>
+      </c>
+      <c r="D157" t="s">
         <v>736</v>
-      </c>
-      <c r="D157" t="s">
-        <v>358</v>
       </c>
       <c r="E157" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>79</v>
       </c>
@@ -18412,16 +18886,19 @@
         <v>768</v>
       </c>
       <c r="C158" t="s">
+        <v>57</v>
+      </c>
+      <c r="D158" t="s">
         <v>738</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>360</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>79</v>
       </c>
@@ -18429,16 +18906,19 @@
         <v>767</v>
       </c>
       <c r="C159" t="s">
+        <v>58</v>
+      </c>
+      <c r="D159" t="s">
         <v>737</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
         <v>363</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>80</v>
       </c>
@@ -18446,16 +18926,19 @@
         <v>768</v>
       </c>
       <c r="C160" t="s">
+        <v>57</v>
+      </c>
+      <c r="D160" t="s">
         <v>736</v>
-      </c>
-      <c r="D160" t="s">
-        <v>358</v>
       </c>
       <c r="E160" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>80</v>
       </c>
@@ -18463,16 +18946,19 @@
         <v>767</v>
       </c>
       <c r="C161" t="s">
+        <v>58</v>
+      </c>
+      <c r="D161" t="s">
         <v>743</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>363</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>81</v>
       </c>
@@ -18480,16 +18966,19 @@
         <v>768</v>
       </c>
       <c r="C162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D162" t="s">
         <v>738</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
         <v>359</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:6">
       <c r="A163">
         <v>81</v>
       </c>
@@ -18497,64 +18986,85 @@
         <v>767</v>
       </c>
       <c r="C163" t="s">
+        <v>58</v>
+      </c>
+      <c r="D163" t="s">
         <v>743</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>360</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:6">
       <c r="A164">
         <v>82</v>
       </c>
       <c r="B164" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="C164" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165">
         <v>82</v>
       </c>
       <c r="B165" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="C165" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166">
         <v>83</v>
       </c>
       <c r="B166" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="C166" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167">
         <v>83</v>
       </c>
       <c r="B167" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="C167" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168">
         <v>84</v>
       </c>
       <c r="B168" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="C168" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169">
         <v>84</v>
       </c>
       <c r="B169" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="C169" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170">
         <v>85</v>
       </c>
@@ -18562,13 +19072,16 @@
         <v>767</v>
       </c>
       <c r="C170" t="s">
+        <v>57</v>
+      </c>
+      <c r="D170" t="s">
         <v>743</v>
       </c>
-      <c r="E170" t="s">
+      <c r="F170" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:6">
       <c r="A171">
         <v>85</v>
       </c>
@@ -18576,16 +19089,19 @@
         <v>768</v>
       </c>
       <c r="C171" t="s">
+        <v>58</v>
+      </c>
+      <c r="D171" t="s">
         <v>740</v>
-      </c>
-      <c r="D171" t="s">
-        <v>358</v>
       </c>
       <c r="E171" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="F171" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172">
         <v>86</v>
       </c>
@@ -18593,13 +19109,16 @@
         <v>767</v>
       </c>
       <c r="C172" t="s">
+        <v>57</v>
+      </c>
+      <c r="D172" t="s">
         <v>743</v>
       </c>
-      <c r="E172" t="s">
+      <c r="F172" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:6">
       <c r="A173">
         <v>86</v>
       </c>
@@ -18607,16 +19126,19 @@
         <v>768</v>
       </c>
       <c r="C173" t="s">
+        <v>58</v>
+      </c>
+      <c r="D173" t="s">
         <v>740</v>
-      </c>
-      <c r="D173" t="s">
-        <v>358</v>
       </c>
       <c r="E173" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="F173" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174">
         <v>87</v>
       </c>
@@ -18624,38 +19146,47 @@
         <v>767</v>
       </c>
       <c r="C174" t="s">
+        <v>57</v>
+      </c>
+      <c r="D174" t="s">
         <v>368</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F174" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>87</v>
       </c>
       <c r="B175" t="s">
         <v>768</v>
       </c>
-      <c r="D175" t="s">
-        <v>358</v>
+      <c r="C175" t="s">
+        <v>58</v>
       </c>
       <c r="E175" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="F175" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176">
         <v>88</v>
       </c>
       <c r="B176" t="s">
         <v>767</v>
       </c>
-      <c r="E176" t="s">
+      <c r="C176" t="s">
+        <v>57</v>
+      </c>
+      <c r="F176" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:6">
       <c r="A177">
         <v>88</v>
       </c>
@@ -18663,16 +19194,19 @@
         <v>768</v>
       </c>
       <c r="C177" t="s">
+        <v>58</v>
+      </c>
+      <c r="D177" t="s">
         <v>736</v>
-      </c>
-      <c r="D177" t="s">
-        <v>358</v>
       </c>
       <c r="E177" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>89</v>
       </c>
@@ -18680,16 +19214,19 @@
         <v>767</v>
       </c>
       <c r="C178" t="s">
+        <v>57</v>
+      </c>
+      <c r="D178" t="s">
         <v>743</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>363</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F178" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>89</v>
       </c>
@@ -18697,16 +19234,19 @@
         <v>768</v>
       </c>
       <c r="C179" t="s">
+        <v>58</v>
+      </c>
+      <c r="D179" t="s">
         <v>736</v>
-      </c>
-      <c r="D179" t="s">
-        <v>358</v>
       </c>
       <c r="E179" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>90</v>
       </c>
@@ -18714,16 +19254,19 @@
         <v>768</v>
       </c>
       <c r="C180" t="s">
+        <v>57</v>
+      </c>
+      <c r="D180" t="s">
         <v>743</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>360</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>90</v>
       </c>
@@ -18731,16 +19274,19 @@
         <v>767</v>
       </c>
       <c r="C181" t="s">
+        <v>58</v>
+      </c>
+      <c r="D181" t="s">
         <v>738</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>360</v>
       </c>
-      <c r="E181" t="s">
+      <c r="F181" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>91</v>
       </c>
@@ -18748,16 +19294,19 @@
         <v>768</v>
       </c>
       <c r="C182" t="s">
+        <v>57</v>
+      </c>
+      <c r="D182" t="s">
         <v>743</v>
       </c>
-      <c r="D182" t="s">
+      <c r="E182" t="s">
         <v>360</v>
       </c>
-      <c r="E182" t="s">
+      <c r="F182" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>91</v>
       </c>
@@ -18765,16 +19314,19 @@
         <v>767</v>
       </c>
       <c r="C183" t="s">
+        <v>58</v>
+      </c>
+      <c r="D183" t="s">
         <v>738</v>
       </c>
-      <c r="D183" t="s">
+      <c r="E183" t="s">
         <v>360</v>
       </c>
-      <c r="E183" t="s">
+      <c r="F183" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>92</v>
       </c>
@@ -18782,16 +19334,19 @@
         <v>768</v>
       </c>
       <c r="C184" t="s">
+        <v>57</v>
+      </c>
+      <c r="D184" t="s">
         <v>743</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" t="s">
         <v>360</v>
       </c>
-      <c r="E184" t="s">
+      <c r="F184" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>92</v>
       </c>
@@ -18799,16 +19354,19 @@
         <v>767</v>
       </c>
       <c r="C185" t="s">
+        <v>58</v>
+      </c>
+      <c r="D185" t="s">
         <v>738</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>360</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>93</v>
       </c>
@@ -18816,16 +19374,19 @@
         <v>768</v>
       </c>
       <c r="C186" t="s">
+        <v>57</v>
+      </c>
+      <c r="D186" t="s">
         <v>738</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E186" t="s">
         <v>359</v>
       </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>93</v>
       </c>
@@ -18833,16 +19394,19 @@
         <v>767</v>
       </c>
       <c r="C187" t="s">
+        <v>58</v>
+      </c>
+      <c r="D187" t="s">
         <v>737</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>360</v>
       </c>
-      <c r="E187" t="s">
+      <c r="F187" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>94</v>
       </c>
@@ -18850,16 +19414,19 @@
         <v>768</v>
       </c>
       <c r="C188" t="s">
+        <v>57</v>
+      </c>
+      <c r="D188" t="s">
         <v>736</v>
-      </c>
-      <c r="D188" t="s">
-        <v>358</v>
       </c>
       <c r="E188" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="F188" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>94</v>
       </c>
@@ -18867,16 +19434,19 @@
         <v>767</v>
       </c>
       <c r="C189" t="s">
+        <v>58</v>
+      </c>
+      <c r="D189" t="s">
         <v>743</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>360</v>
       </c>
-      <c r="E189" t="s">
+      <c r="F189" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>95</v>
       </c>
@@ -18884,16 +19454,19 @@
         <v>768</v>
       </c>
       <c r="C190" t="s">
+        <v>57</v>
+      </c>
+      <c r="D190" t="s">
         <v>736</v>
-      </c>
-      <c r="D190" t="s">
-        <v>358</v>
       </c>
       <c r="E190" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="F190" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>95</v>
       </c>
@@ -18901,16 +19474,19 @@
         <v>767</v>
       </c>
       <c r="C191" t="s">
+        <v>58</v>
+      </c>
+      <c r="D191" t="s">
         <v>737</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>361</v>
       </c>
-      <c r="E191" t="s">
+      <c r="F191" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>96</v>
       </c>
@@ -18918,16 +19494,19 @@
         <v>767</v>
       </c>
       <c r="C192" t="s">
+        <v>57</v>
+      </c>
+      <c r="D192" t="s">
         <v>743</v>
       </c>
-      <c r="D192" t="s">
+      <c r="E192" t="s">
         <v>360</v>
       </c>
-      <c r="E192" t="s">
+      <c r="F192" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>96</v>
       </c>
@@ -18935,16 +19514,19 @@
         <v>768</v>
       </c>
       <c r="C193" t="s">
+        <v>58</v>
+      </c>
+      <c r="D193" t="s">
         <v>738</v>
       </c>
-      <c r="D193" t="s">
+      <c r="E193" t="s">
         <v>360</v>
       </c>
-      <c r="E193" t="s">
+      <c r="F193" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>97</v>
       </c>
@@ -18952,16 +19534,19 @@
         <v>768</v>
       </c>
       <c r="C194" t="s">
+        <v>57</v>
+      </c>
+      <c r="D194" t="s">
         <v>741</v>
-      </c>
-      <c r="D194" t="s">
-        <v>358</v>
       </c>
       <c r="E194" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="F194" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>97</v>
       </c>
@@ -18969,16 +19554,19 @@
         <v>767</v>
       </c>
       <c r="C195" t="s">
+        <v>58</v>
+      </c>
+      <c r="D195" t="s">
         <v>737</v>
       </c>
-      <c r="D195" t="s">
+      <c r="E195" t="s">
         <v>360</v>
       </c>
-      <c r="E195" t="s">
+      <c r="F195" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>98</v>
       </c>
@@ -18986,16 +19574,19 @@
         <v>767</v>
       </c>
       <c r="C196" t="s">
+        <v>57</v>
+      </c>
+      <c r="D196" t="s">
         <v>737</v>
       </c>
-      <c r="D196" t="s">
+      <c r="E196" t="s">
         <v>363</v>
       </c>
-      <c r="E196" t="s">
+      <c r="F196" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>98</v>
       </c>
@@ -19003,16 +19594,19 @@
         <v>768</v>
       </c>
       <c r="C197" t="s">
+        <v>58</v>
+      </c>
+      <c r="D197" t="s">
         <v>736</v>
-      </c>
-      <c r="D197" t="s">
-        <v>358</v>
       </c>
       <c r="E197" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="F197" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>99</v>
       </c>
@@ -19020,16 +19614,19 @@
         <v>767</v>
       </c>
       <c r="C198" t="s">
+        <v>57</v>
+      </c>
+      <c r="D198" t="s">
         <v>737</v>
       </c>
-      <c r="D198" t="s">
+      <c r="E198" t="s">
         <v>363</v>
       </c>
-      <c r="E198" t="s">
+      <c r="F198" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>99</v>
       </c>
@@ -19037,16 +19634,19 @@
         <v>768</v>
       </c>
       <c r="C199" t="s">
+        <v>58</v>
+      </c>
+      <c r="D199" t="s">
         <v>736</v>
-      </c>
-      <c r="D199" t="s">
-        <v>358</v>
       </c>
       <c r="E199" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="F199" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>100</v>
       </c>
@@ -19054,16 +19654,19 @@
         <v>767</v>
       </c>
       <c r="C200" t="s">
+        <v>57</v>
+      </c>
+      <c r="D200" t="s">
         <v>737</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>363</v>
       </c>
-      <c r="E200" t="s">
+      <c r="F200" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:6">
       <c r="A201" s="4">
         <v>100</v>
       </c>
@@ -19071,16 +19674,19 @@
         <v>768</v>
       </c>
       <c r="C201" t="s">
+        <v>58</v>
+      </c>
+      <c r="D201" t="s">
         <v>736</v>
-      </c>
-      <c r="D201" t="s">
-        <v>358</v>
       </c>
       <c r="E201" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="F201" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" s="4">
         <v>101</v>
       </c>
@@ -19088,16 +19694,19 @@
         <v>767</v>
       </c>
       <c r="C202" t="s">
+        <v>57</v>
+      </c>
+      <c r="D202" t="s">
         <v>743</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
         <v>360</v>
       </c>
-      <c r="E202" t="s">
+      <c r="F202" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:6">
       <c r="A203" s="4">
         <v>101</v>
       </c>
@@ -19105,16 +19714,19 @@
         <v>768</v>
       </c>
       <c r="C203" t="s">
+        <v>58</v>
+      </c>
+      <c r="D203" t="s">
         <v>738</v>
       </c>
-      <c r="D203" t="s">
+      <c r="E203" t="s">
         <v>359</v>
       </c>
-      <c r="E203" t="s">
+      <c r="F203" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:6">
       <c r="A204" s="4">
         <v>102</v>
       </c>
@@ -19122,16 +19734,19 @@
         <v>768</v>
       </c>
       <c r="C204" t="s">
+        <v>57</v>
+      </c>
+      <c r="D204" t="s">
         <v>736</v>
-      </c>
-      <c r="D204" t="s">
-        <v>358</v>
       </c>
       <c r="E204" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="F204" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" s="4">
         <v>102</v>
       </c>
@@ -19139,16 +19754,19 @@
         <v>767</v>
       </c>
       <c r="C205" t="s">
+        <v>58</v>
+      </c>
+      <c r="D205" t="s">
         <v>737</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>361</v>
       </c>
-      <c r="E205" t="s">
+      <c r="F205" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:6">
       <c r="A206" s="4">
         <v>103</v>
       </c>
@@ -19156,16 +19774,19 @@
         <v>768</v>
       </c>
       <c r="C206" t="s">
+        <v>57</v>
+      </c>
+      <c r="D206" t="s">
         <v>736</v>
-      </c>
-      <c r="D206" t="s">
-        <v>358</v>
       </c>
       <c r="E206" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="F206" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" s="4">
         <v>103</v>
       </c>
@@ -19173,16 +19794,19 @@
         <v>767</v>
       </c>
       <c r="C207" t="s">
+        <v>58</v>
+      </c>
+      <c r="D207" t="s">
         <v>737</v>
       </c>
-      <c r="D207" t="s">
+      <c r="E207" t="s">
         <v>361</v>
       </c>
-      <c r="E207" t="s">
+      <c r="F207" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:6">
       <c r="A208" s="4">
         <v>104</v>
       </c>
@@ -19190,16 +19814,19 @@
         <v>767</v>
       </c>
       <c r="C208" t="s">
+        <v>57</v>
+      </c>
+      <c r="D208" t="s">
         <v>737</v>
       </c>
-      <c r="D208" t="s">
+      <c r="E208" t="s">
         <v>360</v>
       </c>
-      <c r="E208" t="s">
+      <c r="F208" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:6">
       <c r="A209" s="4">
         <v>104</v>
       </c>
@@ -19207,16 +19834,19 @@
         <v>768</v>
       </c>
       <c r="C209" t="s">
+        <v>58</v>
+      </c>
+      <c r="D209" t="s">
         <v>736</v>
-      </c>
-      <c r="D209" t="s">
-        <v>358</v>
       </c>
       <c r="E209" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="F209" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" s="4">
         <v>105</v>
       </c>
@@ -19224,16 +19854,19 @@
         <v>767</v>
       </c>
       <c r="C210" t="s">
+        <v>57</v>
+      </c>
+      <c r="D210" t="s">
         <v>743</v>
       </c>
-      <c r="D210" t="s">
+      <c r="E210" t="s">
         <v>360</v>
       </c>
-      <c r="E210" t="s">
+      <c r="F210" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:6">
       <c r="A211" s="4">
         <v>105</v>
       </c>
@@ -19241,16 +19874,19 @@
         <v>768</v>
       </c>
       <c r="C211" t="s">
+        <v>58</v>
+      </c>
+      <c r="D211" t="s">
         <v>736</v>
-      </c>
-      <c r="D211" t="s">
-        <v>358</v>
       </c>
       <c r="E211" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="212" spans="1:5">
+      <c r="F211" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" s="4">
         <v>106</v>
       </c>
@@ -19258,16 +19894,19 @@
         <v>767</v>
       </c>
       <c r="C212" t="s">
+        <v>57</v>
+      </c>
+      <c r="D212" t="s">
         <v>737</v>
       </c>
-      <c r="D212" t="s">
+      <c r="E212" t="s">
         <v>360</v>
       </c>
-      <c r="E212" t="s">
+      <c r="F212" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:6">
       <c r="A213" s="4">
         <v>106</v>
       </c>
@@ -19275,16 +19914,19 @@
         <v>768</v>
       </c>
       <c r="C213" t="s">
+        <v>58</v>
+      </c>
+      <c r="D213" t="s">
         <v>738</v>
       </c>
-      <c r="D213" t="s">
+      <c r="E213" t="s">
         <v>360</v>
       </c>
-      <c r="E213" t="s">
+      <c r="F213" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:6">
       <c r="A214" s="4">
         <v>107</v>
       </c>
@@ -19292,16 +19934,19 @@
         <v>767</v>
       </c>
       <c r="C214" t="s">
+        <v>57</v>
+      </c>
+      <c r="D214" t="s">
         <v>737</v>
       </c>
-      <c r="D214" t="s">
+      <c r="E214" t="s">
         <v>360</v>
       </c>
-      <c r="E214" t="s">
+      <c r="F214" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:6">
       <c r="A215" s="4">
         <v>107</v>
       </c>
@@ -19309,16 +19954,19 @@
         <v>768</v>
       </c>
       <c r="C215" t="s">
+        <v>58</v>
+      </c>
+      <c r="D215" t="s">
         <v>738</v>
       </c>
-      <c r="D215" t="s">
+      <c r="E215" t="s">
         <v>359</v>
       </c>
-      <c r="E215" t="s">
+      <c r="F215" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:6">
       <c r="A216" s="4">
         <v>108</v>
       </c>
@@ -19326,16 +19974,19 @@
         <v>767</v>
       </c>
       <c r="C216" t="s">
+        <v>57</v>
+      </c>
+      <c r="D216" t="s">
         <v>738</v>
       </c>
-      <c r="D216" t="s">
+      <c r="E216" t="s">
         <v>359</v>
       </c>
-      <c r="E216" t="s">
+      <c r="F216" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:6">
       <c r="A217" s="4">
         <v>108</v>
       </c>
@@ -19343,16 +19994,19 @@
         <v>768</v>
       </c>
       <c r="C217" t="s">
+        <v>58</v>
+      </c>
+      <c r="D217" t="s">
         <v>736</v>
-      </c>
-      <c r="D217" t="s">
-        <v>358</v>
       </c>
       <c r="E217" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="218" spans="1:5">
+      <c r="F217" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" s="4">
         <v>109</v>
       </c>
@@ -19360,16 +20014,19 @@
         <v>767</v>
       </c>
       <c r="C218" t="s">
+        <v>57</v>
+      </c>
+      <c r="D218" t="s">
         <v>743</v>
       </c>
-      <c r="D218" t="s">
+      <c r="E218" t="s">
         <v>360</v>
       </c>
-      <c r="E218" t="s">
+      <c r="F218" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:6">
       <c r="A219" s="4">
         <v>109</v>
       </c>
@@ -19377,16 +20034,19 @@
         <v>768</v>
       </c>
       <c r="C219" t="s">
+        <v>58</v>
+      </c>
+      <c r="D219" t="s">
         <v>738</v>
       </c>
-      <c r="D219" t="s">
+      <c r="E219" t="s">
         <v>359</v>
       </c>
-      <c r="E219" t="s">
+      <c r="F219" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:6">
       <c r="A220" s="4">
         <v>110</v>
       </c>
@@ -19394,13 +20054,16 @@
         <v>767</v>
       </c>
       <c r="C220" t="s">
+        <v>57</v>
+      </c>
+      <c r="D220" t="s">
         <v>743</v>
       </c>
-      <c r="E220" t="s">
+      <c r="F220" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:6">
       <c r="A221" s="4">
         <v>110</v>
       </c>
@@ -19408,16 +20071,19 @@
         <v>768</v>
       </c>
       <c r="C221" t="s">
+        <v>58</v>
+      </c>
+      <c r="D221" t="s">
         <v>738</v>
       </c>
-      <c r="D221" t="s">
+      <c r="E221" t="s">
         <v>359</v>
       </c>
-      <c r="E221" t="s">
+      <c r="F221" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:6">
       <c r="A222" s="4">
         <v>111</v>
       </c>
@@ -19425,34 +20091,46 @@
         <v>767</v>
       </c>
       <c r="C222" t="s">
+        <v>57</v>
+      </c>
+      <c r="D222" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:6">
       <c r="A223" s="4">
         <v>111</v>
       </c>
       <c r="B223" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="C223" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" s="4">
         <v>112</v>
       </c>
       <c r="B224" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="C224" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" s="4">
         <v>112</v>
       </c>
       <c r="B225" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="C225" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" s="4">
         <v>113</v>
       </c>
@@ -19460,16 +20138,19 @@
         <v>767</v>
       </c>
       <c r="C226" t="s">
+        <v>57</v>
+      </c>
+      <c r="D226" t="s">
         <v>737</v>
       </c>
-      <c r="D226" t="s">
+      <c r="E226" t="s">
         <v>360</v>
       </c>
-      <c r="E226" t="s">
+      <c r="F226" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:6">
       <c r="A227" s="4">
         <v>113</v>
       </c>
@@ -19477,16 +20158,19 @@
         <v>768</v>
       </c>
       <c r="C227" t="s">
+        <v>58</v>
+      </c>
+      <c r="D227" t="s">
         <v>736</v>
-      </c>
-      <c r="D227" t="s">
-        <v>358</v>
       </c>
       <c r="E227" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="F227" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" s="4">
         <v>114</v>
       </c>
@@ -19494,16 +20178,19 @@
         <v>768</v>
       </c>
       <c r="C228" t="s">
+        <v>57</v>
+      </c>
+      <c r="D228" t="s">
         <v>370</v>
       </c>
-      <c r="D228" t="s">
+      <c r="E228" t="s">
         <v>367</v>
       </c>
-      <c r="E228" t="s">
+      <c r="F228" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:6">
       <c r="A229" s="4">
         <v>114</v>
       </c>
@@ -19511,16 +20198,19 @@
         <v>767</v>
       </c>
       <c r="C229" t="s">
+        <v>58</v>
+      </c>
+      <c r="D229" t="s">
         <v>371</v>
       </c>
-      <c r="D229" t="s">
+      <c r="E229" t="s">
         <v>359</v>
       </c>
-      <c r="E229" t="s">
+      <c r="F229" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:6">
       <c r="A230" s="4">
         <v>115</v>
       </c>
@@ -19528,16 +20218,19 @@
         <v>768</v>
       </c>
       <c r="C230" t="s">
+        <v>57</v>
+      </c>
+      <c r="D230" t="s">
         <v>372</v>
-      </c>
-      <c r="D230" t="s">
-        <v>367</v>
       </c>
       <c r="E230" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="F230" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" s="4">
         <v>115</v>
       </c>
@@ -19545,24 +20238,30 @@
         <v>767</v>
       </c>
       <c r="C231" t="s">
+        <v>58</v>
+      </c>
+      <c r="D231" t="s">
         <v>373</v>
-      </c>
-      <c r="D231" t="s">
-        <v>367</v>
       </c>
       <c r="E231" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="232" spans="1:5">
+      <c r="F231" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" s="4">
         <v>116</v>
       </c>
       <c r="B232" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="233" spans="1:5">
+      <c r="C232" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233" s="4">
         <v>116</v>
       </c>
@@ -19570,16 +20269,19 @@
         <v>768</v>
       </c>
       <c r="C233" t="s">
+        <v>58</v>
+      </c>
+      <c r="D233" t="s">
         <v>736</v>
-      </c>
-      <c r="D233" t="s">
-        <v>358</v>
       </c>
       <c r="E233" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="F233" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" s="4">
         <v>117</v>
       </c>
@@ -19587,16 +20289,19 @@
         <v>767</v>
       </c>
       <c r="C234" t="s">
+        <v>57</v>
+      </c>
+      <c r="D234" t="s">
         <v>737</v>
       </c>
-      <c r="D234" t="s">
+      <c r="E234" t="s">
         <v>361</v>
       </c>
-      <c r="E234" t="s">
+      <c r="F234" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:6">
       <c r="A235" s="4">
         <v>117</v>
       </c>
@@ -19604,16 +20309,19 @@
         <v>768</v>
       </c>
       <c r="C235" t="s">
+        <v>58</v>
+      </c>
+      <c r="D235" t="s">
         <v>736</v>
-      </c>
-      <c r="D235" t="s">
-        <v>358</v>
       </c>
       <c r="E235" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="236" spans="1:5">
+      <c r="F235" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" s="4">
         <v>118</v>
       </c>
@@ -19621,16 +20329,19 @@
         <v>767</v>
       </c>
       <c r="C236" t="s">
+        <v>57</v>
+      </c>
+      <c r="D236" t="s">
         <v>737</v>
       </c>
-      <c r="D236" t="s">
+      <c r="E236" t="s">
         <v>360</v>
       </c>
-      <c r="E236" t="s">
+      <c r="F236" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:6">
       <c r="A237" s="4">
         <v>118</v>
       </c>
@@ -19638,16 +20349,19 @@
         <v>768</v>
       </c>
       <c r="C237" t="s">
+        <v>58</v>
+      </c>
+      <c r="D237" t="s">
         <v>738</v>
       </c>
-      <c r="D237" t="s">
+      <c r="E237" t="s">
         <v>359</v>
       </c>
-      <c r="E237" t="s">
+      <c r="F237" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:6">
       <c r="A238" s="4">
         <v>119</v>
       </c>
@@ -19655,16 +20369,19 @@
         <v>767</v>
       </c>
       <c r="C238" t="s">
+        <v>57</v>
+      </c>
+      <c r="D238" t="s">
         <v>737</v>
       </c>
-      <c r="D238" t="s">
+      <c r="E238" t="s">
         <v>363</v>
       </c>
-      <c r="E238" t="s">
+      <c r="F238" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:6">
       <c r="A239" s="4">
         <v>119</v>
       </c>
@@ -19672,16 +20389,19 @@
         <v>768</v>
       </c>
       <c r="C239" t="s">
+        <v>58</v>
+      </c>
+      <c r="D239" t="s">
         <v>736</v>
-      </c>
-      <c r="D239" t="s">
-        <v>358</v>
       </c>
       <c r="E239" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="240" spans="1:5">
+      <c r="F239" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" s="4">
         <v>120</v>
       </c>
@@ -19689,16 +20409,19 @@
         <v>768</v>
       </c>
       <c r="C240" t="s">
+        <v>57</v>
+      </c>
+      <c r="D240" t="s">
         <v>738</v>
       </c>
-      <c r="D240" t="s">
+      <c r="E240" t="s">
         <v>359</v>
       </c>
-      <c r="E240" t="s">
+      <c r="F240" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:6">
       <c r="A241" s="4">
         <v>120</v>
       </c>
@@ -19706,16 +20429,19 @@
         <v>767</v>
       </c>
       <c r="C241" t="s">
+        <v>58</v>
+      </c>
+      <c r="D241" t="s">
         <v>737</v>
       </c>
-      <c r="D241" t="s">
+      <c r="E241" t="s">
         <v>363</v>
       </c>
-      <c r="E241" t="s">
+      <c r="F241" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:6">
       <c r="A242" s="4">
         <v>121</v>
       </c>
@@ -19723,16 +20449,19 @@
         <v>767</v>
       </c>
       <c r="C242" t="s">
+        <v>57</v>
+      </c>
+      <c r="D242" t="s">
         <v>737</v>
       </c>
-      <c r="D242" t="s">
+      <c r="E242" t="s">
         <v>360</v>
       </c>
-      <c r="E242" t="s">
+      <c r="F242" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:6">
       <c r="A243" s="4">
         <v>121</v>
       </c>
@@ -19740,16 +20469,19 @@
         <v>768</v>
       </c>
       <c r="C243" t="s">
+        <v>58</v>
+      </c>
+      <c r="D243" t="s">
         <v>736</v>
-      </c>
-      <c r="D243" t="s">
-        <v>358</v>
       </c>
       <c r="E243" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="244" spans="1:5">
+      <c r="F243" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" s="4">
         <v>122</v>
       </c>
@@ -19757,16 +20489,19 @@
         <v>767</v>
       </c>
       <c r="C244" t="s">
+        <v>57</v>
+      </c>
+      <c r="D244" t="s">
         <v>737</v>
       </c>
-      <c r="D244" t="s">
+      <c r="E244" t="s">
         <v>360</v>
       </c>
-      <c r="E244" t="s">
+      <c r="F244" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:6">
       <c r="A245" s="4">
         <v>122</v>
       </c>
@@ -19774,16 +20509,19 @@
         <v>768</v>
       </c>
       <c r="C245" t="s">
+        <v>58</v>
+      </c>
+      <c r="D245" t="s">
         <v>374</v>
       </c>
-      <c r="D245" t="s">
+      <c r="E245" t="s">
         <v>360</v>
       </c>
-      <c r="E245" t="s">
+      <c r="F245" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:6">
       <c r="A246" s="4">
         <v>123</v>
       </c>
@@ -19791,16 +20529,19 @@
         <v>767</v>
       </c>
       <c r="C246" t="s">
+        <v>57</v>
+      </c>
+      <c r="D246" t="s">
         <v>737</v>
       </c>
-      <c r="D246" t="s">
+      <c r="E246" t="s">
         <v>360</v>
       </c>
-      <c r="E246" t="s">
+      <c r="F246" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:6">
       <c r="A247" s="4">
         <v>123</v>
       </c>
@@ -19808,16 +20549,19 @@
         <v>768</v>
       </c>
       <c r="C247" t="s">
+        <v>58</v>
+      </c>
+      <c r="D247" t="s">
         <v>374</v>
       </c>
-      <c r="D247" t="s">
+      <c r="E247" t="s">
         <v>52</v>
       </c>
-      <c r="E247" t="s">
+      <c r="F247" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:6">
       <c r="A248" s="4">
         <v>124</v>
       </c>
@@ -19825,16 +20569,19 @@
         <v>768</v>
       </c>
       <c r="C248" t="s">
+        <v>57</v>
+      </c>
+      <c r="D248" t="s">
         <v>737</v>
       </c>
-      <c r="D248" t="s">
+      <c r="E248" t="s">
         <v>367</v>
       </c>
-      <c r="E248" t="s">
+      <c r="F248" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:6">
       <c r="A249" s="4">
         <v>124</v>
       </c>
@@ -19842,13 +20589,16 @@
         <v>767</v>
       </c>
       <c r="C249" t="s">
+        <v>58</v>
+      </c>
+      <c r="D249" t="s">
         <v>743</v>
       </c>
-      <c r="E249" t="s">
+      <c r="F249" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:6">
       <c r="A250" s="4">
         <v>125</v>
       </c>
@@ -19856,16 +20606,19 @@
         <v>767</v>
       </c>
       <c r="C250" t="s">
+        <v>57</v>
+      </c>
+      <c r="D250" t="s">
         <v>735</v>
-      </c>
-      <c r="D250" t="s">
-        <v>358</v>
       </c>
       <c r="E250" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="251" spans="1:5">
+      <c r="F250" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" s="4">
         <v>125</v>
       </c>
@@ -19873,16 +20626,19 @@
         <v>768</v>
       </c>
       <c r="C251" t="s">
+        <v>58</v>
+      </c>
+      <c r="D251" t="s">
         <v>735</v>
-      </c>
-      <c r="D251" t="s">
-        <v>358</v>
       </c>
       <c r="E251" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="252" spans="1:5">
+      <c r="F251" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" s="4">
         <v>126</v>
       </c>
@@ -19890,16 +20646,19 @@
         <v>768</v>
       </c>
       <c r="C252" t="s">
+        <v>57</v>
+      </c>
+      <c r="D252" t="s">
         <v>736</v>
-      </c>
-      <c r="D252" t="s">
-        <v>358</v>
       </c>
       <c r="E252" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="253" spans="1:5">
+      <c r="F252" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" s="4">
         <v>126</v>
       </c>
@@ -19907,16 +20666,19 @@
         <v>767</v>
       </c>
       <c r="C253" t="s">
+        <v>58</v>
+      </c>
+      <c r="D253" t="s">
         <v>737</v>
       </c>
-      <c r="D253" t="s">
+      <c r="E253" t="s">
         <v>363</v>
       </c>
-      <c r="E253" t="s">
+      <c r="F253" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:6">
       <c r="A254" s="4">
         <v>127</v>
       </c>
@@ -19924,30 +20686,36 @@
         <v>768</v>
       </c>
       <c r="C254" t="s">
+        <v>57</v>
+      </c>
+      <c r="D254" t="s">
         <v>736</v>
-      </c>
-      <c r="D254" t="s">
-        <v>358</v>
       </c>
       <c r="E254" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="255" spans="1:5">
+      <c r="F254" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255" s="4">
         <v>127</v>
       </c>
       <c r="B255" t="s">
         <v>767</v>
       </c>
-      <c r="D255" t="s">
+      <c r="C255" t="s">
+        <v>58</v>
+      </c>
+      <c r="E255" t="s">
         <v>363</v>
       </c>
-      <c r="E255" t="s">
+      <c r="F255" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:6">
       <c r="A256" s="4">
         <v>128</v>
       </c>
@@ -19955,16 +20723,19 @@
         <v>768</v>
       </c>
       <c r="C256" t="s">
+        <v>57</v>
+      </c>
+      <c r="D256" t="s">
         <v>736</v>
-      </c>
-      <c r="D256" t="s">
-        <v>358</v>
       </c>
       <c r="E256" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="257" spans="1:5">
+      <c r="F256" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" s="4">
         <v>128</v>
       </c>
@@ -19972,16 +20743,19 @@
         <v>767</v>
       </c>
       <c r="C257" t="s">
+        <v>58</v>
+      </c>
+      <c r="D257" t="s">
         <v>737</v>
       </c>
-      <c r="D257" t="s">
+      <c r="E257" t="s">
         <v>363</v>
       </c>
-      <c r="E257" t="s">
+      <c r="F257" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:6">
       <c r="A258" s="4">
         <v>129</v>
       </c>
@@ -19989,16 +20763,19 @@
         <v>767</v>
       </c>
       <c r="C258" t="s">
+        <v>57</v>
+      </c>
+      <c r="D258" t="s">
         <v>737</v>
       </c>
-      <c r="D258" t="s">
+      <c r="E258" t="s">
         <v>361</v>
       </c>
-      <c r="E258" t="s">
+      <c r="F258" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:6">
       <c r="A259" s="4">
         <v>129</v>
       </c>
@@ -20006,16 +20783,19 @@
         <v>768</v>
       </c>
       <c r="C259" t="s">
+        <v>58</v>
+      </c>
+      <c r="D259" t="s">
         <v>374</v>
       </c>
-      <c r="D259" t="s">
+      <c r="E259" t="s">
         <v>361</v>
       </c>
-      <c r="E259" t="s">
+      <c r="F259" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:6">
       <c r="A260" s="4">
         <v>130</v>
       </c>
@@ -20023,16 +20803,19 @@
         <v>767</v>
       </c>
       <c r="C260" t="s">
+        <v>57</v>
+      </c>
+      <c r="D260" t="s">
         <v>743</v>
       </c>
-      <c r="D260" t="s">
+      <c r="E260" t="s">
         <v>361</v>
       </c>
-      <c r="E260" t="s">
+      <c r="F260" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:6">
       <c r="A261" s="4">
         <v>130</v>
       </c>
@@ -20040,30 +20823,36 @@
         <v>768</v>
       </c>
       <c r="C261" t="s">
+        <v>58</v>
+      </c>
+      <c r="D261" t="s">
         <v>374</v>
       </c>
-      <c r="D261" t="s">
+      <c r="E261" t="s">
         <v>361</v>
       </c>
-      <c r="E261" t="s">
+      <c r="F261" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:6">
       <c r="A262" s="4">
         <v>131</v>
       </c>
       <c r="B262" t="s">
         <v>767</v>
       </c>
-      <c r="D262" t="s">
+      <c r="C262" t="s">
+        <v>57</v>
+      </c>
+      <c r="E262" t="s">
         <v>360</v>
       </c>
-      <c r="E262" t="s">
+      <c r="F262" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:6">
       <c r="A263" s="4">
         <v>131</v>
       </c>
@@ -20071,16 +20860,19 @@
         <v>768</v>
       </c>
       <c r="C263" t="s">
+        <v>58</v>
+      </c>
+      <c r="D263" t="s">
         <v>736</v>
-      </c>
-      <c r="D263" t="s">
-        <v>358</v>
       </c>
       <c r="E263" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="264" spans="1:5">
+      <c r="F263" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264" s="4">
         <v>132</v>
       </c>
@@ -20088,27 +20880,33 @@
         <v>767</v>
       </c>
       <c r="C264" t="s">
+        <v>57</v>
+      </c>
+      <c r="D264" t="s">
         <v>368</v>
       </c>
-      <c r="E264" t="s">
+      <c r="F264" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:6">
       <c r="A265" s="4">
         <v>132</v>
       </c>
       <c r="B265" t="s">
         <v>768</v>
       </c>
-      <c r="D265" t="s">
-        <v>358</v>
+      <c r="C265" t="s">
+        <v>58</v>
       </c>
       <c r="E265" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="266" spans="1:5">
+      <c r="F265" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266" s="4">
         <v>133</v>
       </c>
@@ -20116,16 +20914,19 @@
         <v>767</v>
       </c>
       <c r="C266" t="s">
+        <v>57</v>
+      </c>
+      <c r="D266" t="s">
         <v>742</v>
       </c>
-      <c r="D266" t="s">
+      <c r="E266" t="s">
         <v>360</v>
       </c>
-      <c r="E266" t="s">
+      <c r="F266" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:6">
       <c r="A267" s="4">
         <v>133</v>
       </c>
@@ -20133,16 +20934,19 @@
         <v>768</v>
       </c>
       <c r="C267" t="s">
+        <v>58</v>
+      </c>
+      <c r="D267" t="s">
         <v>738</v>
       </c>
-      <c r="D267" t="s">
+      <c r="E267" t="s">
         <v>360</v>
       </c>
-      <c r="E267" t="s">
+      <c r="F267" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:6">
       <c r="A268" s="4">
         <v>134</v>
       </c>
@@ -20150,16 +20954,19 @@
         <v>768</v>
       </c>
       <c r="C268" t="s">
+        <v>57</v>
+      </c>
+      <c r="D268" t="s">
         <v>737</v>
-      </c>
-      <c r="D268" t="s">
-        <v>367</v>
       </c>
       <c r="E268" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="269" spans="1:5">
+      <c r="F268" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269" s="4">
         <v>134</v>
       </c>
@@ -20167,16 +20974,19 @@
         <v>767</v>
       </c>
       <c r="C269" t="s">
+        <v>58</v>
+      </c>
+      <c r="D269" t="s">
         <v>702</v>
       </c>
-      <c r="D269" t="s">
+      <c r="E269" t="s">
         <v>361</v>
       </c>
-      <c r="E269" t="s">
+      <c r="F269" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:6">
       <c r="A270" s="4">
         <v>135</v>
       </c>
@@ -20184,16 +20994,19 @@
         <v>767</v>
       </c>
       <c r="C270" t="s">
+        <v>57</v>
+      </c>
+      <c r="D270" t="s">
         <v>737</v>
       </c>
-      <c r="D270" t="s">
+      <c r="E270" t="s">
         <v>363</v>
       </c>
-      <c r="E270" t="s">
+      <c r="F270" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:6">
       <c r="A271" s="4">
         <v>135</v>
       </c>
@@ -20201,16 +21014,19 @@
         <v>768</v>
       </c>
       <c r="C271" t="s">
+        <v>58</v>
+      </c>
+      <c r="D271" t="s">
         <v>736</v>
-      </c>
-      <c r="D271" t="s">
-        <v>358</v>
       </c>
       <c r="E271" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="272" spans="1:5">
+      <c r="F271" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272" s="4">
         <v>136</v>
       </c>
@@ -20218,16 +21034,19 @@
         <v>767</v>
       </c>
       <c r="C272" t="s">
+        <v>57</v>
+      </c>
+      <c r="D272" t="s">
         <v>737</v>
       </c>
-      <c r="D272" t="s">
+      <c r="E272" t="s">
         <v>363</v>
       </c>
-      <c r="E272" t="s">
+      <c r="F272" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:6">
       <c r="A273" s="4">
         <v>136</v>
       </c>
@@ -20235,60 +21054,75 @@
         <v>768</v>
       </c>
       <c r="C273" t="s">
+        <v>58</v>
+      </c>
+      <c r="D273" t="s">
         <v>736</v>
-      </c>
-      <c r="D273" t="s">
-        <v>358</v>
       </c>
       <c r="E273" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="274" spans="1:5">
+      <c r="F273" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" s="4">
         <v>137</v>
       </c>
       <c r="B274" t="s">
         <v>767</v>
       </c>
-      <c r="D274" t="s">
+      <c r="C274" t="s">
+        <v>57</v>
+      </c>
+      <c r="E274" t="s">
         <v>360</v>
       </c>
-      <c r="E274" t="s">
+      <c r="F274" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:6">
       <c r="A275" s="4">
         <v>137</v>
       </c>
       <c r="B275" t="s">
         <v>768</v>
       </c>
-      <c r="D275" t="s">
+      <c r="C275" t="s">
+        <v>58</v>
+      </c>
+      <c r="E275" t="s">
         <v>360</v>
       </c>
-      <c r="E275" t="s">
+      <c r="F275" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:6">
       <c r="A276" s="4">
         <v>138</v>
       </c>
       <c r="B276" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="277" spans="1:5">
+      <c r="C276" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277" s="4">
         <v>138</v>
       </c>
       <c r="B277" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="278" spans="1:5">
+      <c r="C277" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278" s="4">
         <v>139</v>
       </c>
@@ -20296,18 +21130,24 @@
         <v>767</v>
       </c>
       <c r="C278" t="s">
+        <v>57</v>
+      </c>
+      <c r="D278" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:6">
       <c r="A279" s="4">
         <v>139</v>
       </c>
       <c r="B279" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="280" spans="1:5">
+      <c r="C279" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" s="4">
         <v>140</v>
       </c>
@@ -20315,15 +21155,21 @@
         <v>767</v>
       </c>
       <c r="C280" t="s">
+        <v>57</v>
+      </c>
+      <c r="D280" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:6">
       <c r="A281" s="4">
         <v>140</v>
       </c>
       <c r="B281" t="s">
         <v>768</v>
+      </c>
+      <c r="C281" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Data/OK_musical_ensemble_scenes.xlsx
+++ b/Data/OK_musical_ensemble_scenes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mqoutlook-my.sharepoint.com/personal/austin_megier_hdr_mq_edu_au/Documents/MRes_Thesis_Data/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mqoutlook-my.sharepoint.com/personal/austin_megier_hdr_mq_edu_au/Documents/MRes/MRes_Thesis_Data/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7345" documentId="8_{54466117-68E5-FA45-A62B-69B7A0496348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0D4062C3-7230-3C4E-8656-DE2A249D7762}"/>
+  <xr:revisionPtr revIDLastSave="7349" documentId="8_{54466117-68E5-FA45-A62B-69B7A0496348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C3E64C46-4B56-0A4E-9446-95329682A08B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="3" xr2:uid="{F188212D-6757-6E45-81FC-2E36196F77A2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="2" xr2:uid="{F188212D-6757-6E45-81FC-2E36196F77A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4406" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4407" uniqueCount="771">
   <si>
     <t>Room</t>
   </si>
@@ -2357,6 +2357,9 @@
   </si>
   <si>
     <t>Ptahhotep Iyniankh</t>
+  </si>
+  <si>
+    <t>NK</t>
   </si>
 </sst>
 </file>
@@ -4847,7 +4850,7 @@
   <dimension ref="A1:I259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -15743,7 +15746,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15958,7 +15961,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -21371,17 +21374,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D8B279-056F-1F4B-95AB-FEAD2B0ED30A}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>611</v>
       </c>
       <c r="B1" t="s">
@@ -22156,6 +22159,17 @@
       </c>
       <c r="C35" t="s">
         <v>96</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" t="s">
+        <v>770</v>
       </c>
     </row>
   </sheetData>
@@ -22167,9 +22181,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00059BFA-7364-4145-88BE-C4AB55199DE3}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23483,7 +23497,7 @@
   <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -24398,7 +24412,7 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
@@ -26196,7 +26210,7 @@
   <dimension ref="A1:C235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C232" sqref="C232"/>
     </sheetView>
   </sheetViews>

--- a/Data/OK_musical_ensemble_scenes.xlsx
+++ b/Data/OK_musical_ensemble_scenes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mqoutlook-my.sharepoint.com/personal/austin_megier_hdr_mq_edu_au/Documents/MRes/MRes_Thesis_Data/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7349" documentId="8_{54466117-68E5-FA45-A62B-69B7A0496348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C3E64C46-4B56-0A4E-9446-95329682A08B}"/>
+  <xr:revisionPtr revIDLastSave="7349" documentId="8_{54466117-68E5-FA45-A62B-69B7A0496348}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C3E64C46-4B56-0A4E-9446-95329682A08B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="2" xr2:uid="{F188212D-6757-6E45-81FC-2E36196F77A2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="7" xr2:uid="{F188212D-6757-6E45-81FC-2E36196F77A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="2" r:id="rId1"/>
@@ -2800,7 +2800,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -21376,9 +21376,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D8B279-056F-1F4B-95AB-FEAD2B0ED30A}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -22182,8 +22182,8 @@
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26209,7 +26209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CD7761-2D16-514C-93D2-DAF47D6248A2}">
   <dimension ref="A1:C235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C232" sqref="C232"/>
     </sheetView>
